--- a/biology/Biologie cellulaire et moléculaire/Exoenzyme/Exoenzyme.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Exoenzyme/Exoenzyme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Une exoenzyme, ou enzyme extracellulaire, est une enzyme qui est sécrétée par une cellule et qui fonctionne en dehors de celle-ci, dans le milieu extracellulaire. Ces enzymes se retrouvent impliquées dans la dégradation de macromolécules qui ne pourraient entrer dans la cellule autrement.
 Ce terme fait aussi souvent référence aux enzymes hydrolytiques digestives sécrétées par les champignons.
